--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,46 +4,94 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15030" windowHeight="8590"/>
+    <workbookView windowWidth="16440" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Slot" sheetId="1" r:id="rId1"/>
+    <sheet name="Cookware" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>//Remark</t>
   </si>
   <si>
+    <t>//edu career</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>cookwareType</t>
+  </si>
+  <si>
+    <t>growRate</t>
+  </si>
+  <si>
+    <t>ageMin_real</t>
+  </si>
+  <si>
+    <t>ageMax_real</t>
+  </si>
+  <si>
+    <t>eduMin</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>enum|CookwareType</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>School</t>
   </si>
   <si>
+    <t>Enhance education</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
     <t>Work1</t>
   </si>
   <si>
+    <t>Enhance career +</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
     <t>Work2</t>
   </si>
   <si>
+    <t>Enhance career ++</t>
+  </si>
+  <si>
     <t>Work3</t>
   </si>
   <si>
+    <t>Enhance career +++</t>
+  </si>
+  <si>
     <t>Retire</t>
+  </si>
+  <si>
+    <t>Finish this human</t>
   </si>
 </sst>
 </file>
@@ -56,14 +104,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,48 +562,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,97 +616,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,81 +1059,236 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="12.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
+    <col min="7" max="7" width="12.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="12.0909090909091" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2002</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2003</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>4001</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>999</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16440" windowHeight="9150"/>
+    <workbookView windowWidth="25600" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Cookware" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1285,7 +1285,7 @@
         <v>60</v>
       </c>
       <c r="G9">
-        <v>999</v>
+        <v>888</v>
       </c>
       <c r="H9">
         <v>0</v>

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11610"/>
+    <workbookView windowWidth="16880" windowHeight="10870"/>
   </bookViews>
   <sheets>
     <sheet name="Cookware" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1236,7 +1236,7 @@
         <v>45</v>
       </c>
       <c r="H7">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1262,7 +1262,7 @@
         <v>60</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16880" windowHeight="10870"/>
+    <workbookView windowWidth="16880" windowHeight="10270"/>
   </bookViews>
   <sheets>
     <sheet name="Cookware" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>//Remark</t>
   </si>
@@ -34,6 +34,9 @@
     <t>cookwareType</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>growRate</t>
   </si>
   <si>
@@ -86,6 +89,15 @@
   </si>
   <si>
     <t>Enhance career +++</t>
+  </si>
+  <si>
+    <t>MarryF</t>
+  </si>
+  <si>
+    <t>Marriage</t>
+  </si>
+  <si>
+    <t>MarryM</t>
   </si>
   <si>
     <t>Retire</t>
@@ -1059,31 +1071,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="19.1818181818182" customWidth="1"/>
-    <col min="5" max="5" width="12.7272727272727" customWidth="1"/>
-    <col min="6" max="6" width="11.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="12.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="12.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="10.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="12.7272727272727" customWidth="1"/>
+    <col min="7" max="7" width="11.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="12.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="12.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1108,186 +1121,233 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
         <v>60</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="G5">
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>3001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>3002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>4001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>60</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>2001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>60</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>2002</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>45</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>2003</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>60</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>4001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
+      <c r="H10">
         <v>888</v>
       </c>
-      <c r="H9">
+      <c r="I10">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16880" windowHeight="10270"/>
+    <workbookView windowWidth="20750" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Cookware" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>//Remark</t>
   </si>
@@ -22,6 +22,9 @@
     <t>//edu career</t>
   </si>
   <si>
+    <t>//view</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -47,6 +50,12 @@
   </si>
   <si>
     <t>eduMin</t>
+  </si>
+  <si>
+    <t>posxCapa</t>
+  </si>
+  <si>
+    <t>posyCapa</t>
   </si>
   <si>
     <t>int</t>
@@ -1071,10 +1080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1088,84 +1097,99 @@
     <col min="9" max="9" width="12.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1182,19 +1206,25 @@
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>-100</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1211,19 +1241,25 @@
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>-125</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1240,19 +1276,25 @@
       <c r="I6">
         <v>2</v>
       </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>2003</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1269,16 +1311,22 @@
       <c r="I7">
         <v>4</v>
       </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>3001</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1295,16 +1343,22 @@
       <c r="I8">
         <v>0</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>3002</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1321,19 +1375,25 @@
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>4001</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1348,6 +1408,12 @@
         <v>888</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20750" windowHeight="9510"/>
+    <workbookView windowWidth="21040" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="Cookware" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
     <t>eduMin</t>
   </si>
   <si>
-    <t>posxCapa</t>
-  </si>
-  <si>
-    <t>posyCapa</t>
+    <t>posxInfo</t>
+  </si>
+  <si>
+    <t>posyInfo</t>
   </si>
   <si>
     <t>int</t>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>-125</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1280,7 +1280,7 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1315,7 +1315,7 @@
         <v>100</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>-120</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21040" windowHeight="10650"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Cookware" sheetId="1" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1271,7 +1271,7 @@
         <v>23</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1405,7 +1405,7 @@
         <v>60</v>
       </c>
       <c r="H10">
-        <v>888</v>
+        <v>999</v>
       </c>
       <c r="I10">
         <v>0</v>

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="23680" windowHeight="8330"/>
   </bookViews>
   <sheets>
     <sheet name="Cookware" sheetId="1" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1277,10 +1277,10 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>-180</v>
       </c>
       <c r="K6">
-        <v>-50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23680" windowHeight="8330"/>
+    <workbookView windowWidth="17400" windowHeight="8330"/>
   </bookViews>
   <sheets>
     <sheet name="Cookware" sheetId="1" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G5">
         <v>16</v>
@@ -1265,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>25</v>

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1198,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -1300,10 +1300,10 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>60</v>

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1195,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="G4">
         <v>6</v>

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17400" windowHeight="8330"/>
+    <workbookView windowWidth="19520" windowHeight="10570"/>
   </bookViews>
   <sheets>
     <sheet name="Cookware" sheetId="1" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1280,7 +1280,7 @@
         <v>-180</v>
       </c>
       <c r="K6">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1312,10 +1312,10 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>-50</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19520" windowHeight="10570"/>
+    <workbookView windowWidth="19920" windowHeight="10570"/>
   </bookViews>
   <sheets>
     <sheet name="Cookware" sheetId="1" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1280,7 +1280,7 @@
         <v>-180</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>-120</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -1280,7 +1280,7 @@
         <v>-180</v>
       </c>
       <c r="K6">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-172</v>
       </c>
       <c r="K4">
-        <v>-100</v>
+        <v>-122</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-232</v>
       </c>
       <c r="K8">
-        <v>-150</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>120</v>
+        <v>-10</v>
       </c>
       <c r="K9">
         <v>150</v>

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19920" windowHeight="10570"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Cookware" sheetId="1" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1271,7 +1271,7 @@
         <v>22</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1306,7 +1306,7 @@
         <v>26</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I7">
         <v>4</v>

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="12600" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Cookware" sheetId="1" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1195,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1268,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>36</v>

--- a/Assets/Excel/Cookware.xlsx
+++ b/Assets/Excel/Cookware.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12600" windowHeight="11430"/>
+    <workbookView windowWidth="19350" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Cookware" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>//Remark</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>posyInfo</t>
+  </si>
+  <si>
+    <t>posxHuman</t>
+  </si>
+  <si>
+    <t>poszHuman</t>
   </si>
   <si>
     <t>int</t>
@@ -1080,10 +1086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1095,6 +1101,7 @@
     <col min="7" max="7" width="11.4545454545455" customWidth="1"/>
     <col min="8" max="8" width="12.4545454545455" customWidth="1"/>
     <col min="9" max="9" width="12.0909090909091" customWidth="1"/>
+    <col min="12" max="12" width="9.63636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1108,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1142,54 +1149,66 @@
       <c r="K2" t="s">
         <v>13</v>
       </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1212,19 +1231,25 @@
       <c r="K4">
         <v>-122</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1247,19 +1272,25 @@
       <c r="K5">
         <v>-150</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1282,19 +1313,25 @@
       <c r="K6">
         <v>60</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2003</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1317,16 +1354,22 @@
       <c r="K7">
         <v>-150</v>
       </c>
+      <c r="L7">
+        <v>0.1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>3001</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1349,16 +1392,22 @@
       <c r="K8">
         <v>-43</v>
       </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>3002</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1381,19 +1430,25 @@
       <c r="K9">
         <v>150</v>
       </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+      <c r="M9">
+        <v>-0.05</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>4001</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1415,6 +1470,12 @@
       </c>
       <c r="K10">
         <v>120</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
